--- a/model_outputs/analysis_water_failure/water_deficit_pipe_25.xlsx
+++ b/model_outputs/analysis_water_failure/water_deficit_pipe_25.xlsx
@@ -39,10 +39,10 @@
     <t>Junction 8 deficit</t>
   </si>
   <si>
-    <t>Junctin 10 deficit</t>
+    <t>Junction 28 deficit</t>
   </si>
   <si>
-    <t>Junction 28 deficit</t>
+    <t>Junction 10 deficit</t>
   </si>
 </sst>
 </file>
@@ -12834,7 +12834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Junctin 10 deficit</c:v>
+                  <c:v>Junction 10 deficit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18949,6 +18949,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Water demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18968,7 +19021,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -19010,6 +19063,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Total system deficit (GPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -19029,7 +19135,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -19068,7 +19174,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19683,16 +19789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>592931</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>64293</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640556</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>631031</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>92868</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30956</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20020,7 +20126,7 @@
   <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20042,10 +20148,10 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
